--- a/test/pages.xlsx
+++ b/test/pages.xlsx
@@ -19,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>content</t>
     <phoneticPr fontId="1"/>
@@ -37,51 +29,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__FILE_PATH__</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__TMPL_TYPE__</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a/a/a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b/b/b/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zero/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b/b/b/c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b/b/b/d/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,8 +164,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -150,10 +175,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -482,86 +509,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>42065</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>42066</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42067</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42068</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>42068</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
